--- a/1_Result_Tables/3_naive_forecaster_qoq_evaluations/AVERAGE_10_6_qoq_forecast_error_table_latest_eval.xlsx
+++ b/1_Result_Tables/3_naive_forecaster_qoq_evaluations/AVERAGE_10_6_qoq_forecast_error_table_latest_eval.xlsx
@@ -441,22 +441,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.01521177410757085</v>
+        <v>0.01251000175016376</v>
       </c>
       <c r="C2">
-        <v>0.9708167685734876</v>
+        <v>0.7890050351690446</v>
       </c>
       <c r="D2">
-        <v>4.187158799028484</v>
+        <v>2.035788612216479</v>
       </c>
       <c r="E2">
-        <v>2.046254822603598</v>
+        <v>1.426810643433977</v>
       </c>
       <c r="F2">
-        <v>2.066558963343684</v>
+        <v>1.431633611568203</v>
       </c>
       <c r="G2">
-        <v>51</v>
+        <v>147</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -464,22 +464,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.06844627047333725</v>
+        <v>0.02111910615037019</v>
       </c>
       <c r="C3">
-        <v>1.092801458624372</v>
+        <v>0.8033144239384737</v>
       </c>
       <c r="D3">
-        <v>4.503710726994156</v>
+        <v>2.007830181931747</v>
       </c>
       <c r="E3">
-        <v>2.122194790068564</v>
+        <v>1.416979245413195</v>
       </c>
       <c r="F3">
-        <v>2.142625186267777</v>
+        <v>1.4216990518437</v>
       </c>
       <c r="G3">
-        <v>50</v>
+        <v>146</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -487,22 +487,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.02116772330918306</v>
+        <v>0.0285192289397949</v>
       </c>
       <c r="C4">
-        <v>0.973329744212709</v>
+        <v>0.8031463991591674</v>
       </c>
       <c r="D4">
-        <v>3.945249452684095</v>
+        <v>1.99355748821563</v>
       </c>
       <c r="E4">
-        <v>1.986265202002012</v>
+        <v>1.411933953205896</v>
       </c>
       <c r="F4">
-        <v>2.006734846027487</v>
+        <v>1.416538966206368</v>
       </c>
       <c r="G4">
-        <v>49</v>
+        <v>145</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -510,22 +510,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.10050846687517</v>
+        <v>0.03163772055860532</v>
       </c>
       <c r="C5">
-        <v>1.118427419803017</v>
+        <v>0.8097221098892455</v>
       </c>
       <c r="D5">
-        <v>4.727028183880057</v>
+        <v>2.060327991514458</v>
       </c>
       <c r="E5">
-        <v>2.17417298849012</v>
+        <v>1.435384266151214</v>
       </c>
       <c r="F5">
-        <v>2.194831739464666</v>
+        <v>1.440044421046429</v>
       </c>
       <c r="G5">
-        <v>48</v>
+        <v>144</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -533,22 +533,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>0.0001922921193527008</v>
+        <v>0.03800577977396699</v>
       </c>
       <c r="C6">
-        <v>0.9715821074844706</v>
+        <v>0.8093017064625553</v>
       </c>
       <c r="D6">
-        <v>4.036252245157337</v>
+        <v>2.019953988652261</v>
       </c>
       <c r="E6">
-        <v>2.009042619049516</v>
+        <v>1.421250853527364</v>
       </c>
       <c r="F6">
-        <v>2.030762620643389</v>
+        <v>1.425736443153998</v>
       </c>
       <c r="G6">
-        <v>47</v>
+        <v>143</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -556,22 +556,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.1002765460674019</v>
+        <v>0.04592074729150665</v>
       </c>
       <c r="C7">
-        <v>1.08588965278254</v>
+        <v>0.8016490720135074</v>
       </c>
       <c r="D7">
-        <v>4.674164069693668</v>
+        <v>2.005508156182165</v>
       </c>
       <c r="E7">
-        <v>2.161981514651239</v>
+        <v>1.416159650668725</v>
       </c>
       <c r="F7">
-        <v>2.183519073341691</v>
+        <v>1.420425270060055</v>
       </c>
       <c r="G7">
-        <v>46</v>
+        <v>142</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -579,22 +579,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.02466186912181194</v>
+        <v>0.06000521770874007</v>
       </c>
       <c r="C8">
-        <v>0.9115712867521671</v>
+        <v>0.7979248303654495</v>
       </c>
       <c r="D8">
-        <v>4.026575163211482</v>
+        <v>2.012546806653637</v>
       </c>
       <c r="E8">
-        <v>2.006632792319382</v>
+        <v>1.418642592992906</v>
       </c>
       <c r="F8">
-        <v>2.029154061280164</v>
+        <v>1.422426024816887</v>
       </c>
       <c r="G8">
-        <v>45</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>

--- a/1_Result_Tables/3_naive_forecaster_qoq_evaluations/AVERAGE_10_6_qoq_forecast_error_table_latest_eval.xlsx
+++ b/1_Result_Tables/3_naive_forecaster_qoq_evaluations/AVERAGE_10_6_qoq_forecast_error_table_latest_eval.xlsx
@@ -441,22 +441,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.01251000175016376</v>
+        <v>0.01521177410757085</v>
       </c>
       <c r="C2">
-        <v>0.7890050351690446</v>
+        <v>0.9708167685734876</v>
       </c>
       <c r="D2">
-        <v>2.035788612216479</v>
+        <v>4.187158799028484</v>
       </c>
       <c r="E2">
-        <v>1.426810643433977</v>
+        <v>2.046254822603598</v>
       </c>
       <c r="F2">
-        <v>1.431633611568203</v>
+        <v>2.066558963343684</v>
       </c>
       <c r="G2">
-        <v>147</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -464,22 +464,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.02111910615037019</v>
+        <v>0.06844627047333725</v>
       </c>
       <c r="C3">
-        <v>0.8033144239384737</v>
+        <v>1.092801458624372</v>
       </c>
       <c r="D3">
-        <v>2.007830181931747</v>
+        <v>4.503710726994156</v>
       </c>
       <c r="E3">
-        <v>1.416979245413195</v>
+        <v>2.122194790068564</v>
       </c>
       <c r="F3">
-        <v>1.4216990518437</v>
+        <v>2.142625186267777</v>
       </c>
       <c r="G3">
-        <v>146</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -487,22 +487,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.0285192289397949</v>
+        <v>0.02116772330918306</v>
       </c>
       <c r="C4">
-        <v>0.8031463991591674</v>
+        <v>0.973329744212709</v>
       </c>
       <c r="D4">
-        <v>1.99355748821563</v>
+        <v>3.945249452684095</v>
       </c>
       <c r="E4">
-        <v>1.411933953205896</v>
+        <v>1.986265202002012</v>
       </c>
       <c r="F4">
-        <v>1.416538966206368</v>
+        <v>2.006734846027487</v>
       </c>
       <c r="G4">
-        <v>145</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -510,22 +510,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.03163772055860532</v>
+        <v>0.10050846687517</v>
       </c>
       <c r="C5">
-        <v>0.8097221098892455</v>
+        <v>1.118427419803017</v>
       </c>
       <c r="D5">
-        <v>2.060327991514458</v>
+        <v>4.727028183880057</v>
       </c>
       <c r="E5">
-        <v>1.435384266151214</v>
+        <v>2.17417298849012</v>
       </c>
       <c r="F5">
-        <v>1.440044421046429</v>
+        <v>2.194831739464666</v>
       </c>
       <c r="G5">
-        <v>144</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -533,22 +533,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>0.03800577977396699</v>
+        <v>0.0001922921193527008</v>
       </c>
       <c r="C6">
-        <v>0.8093017064625553</v>
+        <v>0.9715821074844706</v>
       </c>
       <c r="D6">
-        <v>2.019953988652261</v>
+        <v>4.036252245157337</v>
       </c>
       <c r="E6">
-        <v>1.421250853527364</v>
+        <v>2.009042619049516</v>
       </c>
       <c r="F6">
-        <v>1.425736443153998</v>
+        <v>2.030762620643389</v>
       </c>
       <c r="G6">
-        <v>143</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -556,22 +556,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.04592074729150665</v>
+        <v>0.1002765460674019</v>
       </c>
       <c r="C7">
-        <v>0.8016490720135074</v>
+        <v>1.08588965278254</v>
       </c>
       <c r="D7">
-        <v>2.005508156182165</v>
+        <v>4.674164069693668</v>
       </c>
       <c r="E7">
-        <v>1.416159650668725</v>
+        <v>2.161981514651239</v>
       </c>
       <c r="F7">
-        <v>1.420425270060055</v>
+        <v>2.183519073341691</v>
       </c>
       <c r="G7">
-        <v>142</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -579,22 +579,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.06000521770874007</v>
+        <v>-0.02466186912181194</v>
       </c>
       <c r="C8">
-        <v>0.7979248303654495</v>
+        <v>0.9115712867521671</v>
       </c>
       <c r="D8">
-        <v>2.012546806653637</v>
+        <v>4.026575163211482</v>
       </c>
       <c r="E8">
-        <v>1.418642592992906</v>
+        <v>2.006632792319382</v>
       </c>
       <c r="F8">
-        <v>1.422426024816887</v>
+        <v>2.029154061280164</v>
       </c>
       <c r="G8">
-        <v>141</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
